--- a/industrials.xlsx
+++ b/industrials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/repo/industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91234957-ACF5-5F47-BC38-DDF6F74AA143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87535F4-6733-FB41-AD06-3410EE9228E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19580" xr2:uid="{222A4FC0-6F0E-784C-8F45-7A46F7915D10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>CompanyName</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Company URL (official company website)</t>
   </si>
   <si>
-    <t>Game (what they say they do)</t>
-  </si>
-  <si>
-    <t>Number of employees</t>
-  </si>
-  <si>
     <t>Location of main manufacturing site (ideally google maps location)</t>
   </si>
   <si>
@@ -330,6 +324,18 @@
   </si>
   <si>
     <t>ZYRA HOME SOLUTIONS LTD</t>
+  </si>
+  <si>
+    <t>Game (what they say they do, according to their website)</t>
+  </si>
+  <si>
+    <t>Number of employees (2024)</t>
+  </si>
+  <si>
+    <t>Number of employees (2023)</t>
+  </si>
+  <si>
+    <t>Number of employees (2022)</t>
   </si>
 </sst>
 </file>
@@ -702,13 +708,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729A2FF7-E7D0-2D42-8990-C52C3E89C9F3}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="85" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="14" width="55.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,18 +759,24 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>16136810</v>
@@ -757,24 +785,24 @@
         <v>45642</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>15709560</v>
@@ -783,24 +811,24 @@
         <v>45420</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>12611001</v>
@@ -809,24 +837,24 @@
         <v>43970</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>16151272</v>
@@ -835,15 +863,15 @@
         <v>45650</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>13821693</v>
@@ -852,15 +880,15 @@
         <v>44560</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>16144442</v>
@@ -869,24 +897,24 @@
         <v>45645</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>8809081</v>
@@ -895,24 +923,24 @@
         <v>41618</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>71</v>
       </c>
       <c r="B9">
         <v>16303286</v>
@@ -921,24 +949,24 @@
         <v>45726</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>14243523</v>
@@ -947,47 +975,47 @@
         <v>44761</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>45275</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>13817657</v>
@@ -996,24 +1024,24 @@
         <v>44554</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>16134838</v>
@@ -1022,24 +1050,24 @@
         <v>45639</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>11357755</v>
@@ -1048,24 +1076,24 @@
         <v>43232</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>15433697</v>
@@ -1074,24 +1102,24 @@
         <v>45314</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>14051824</v>
@@ -1100,18 +1128,18 @@
         <v>44670</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>15000069</v>
@@ -1120,24 +1148,24 @@
         <v>45120</v>
       </c>
       <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>14909755</v>
@@ -1146,24 +1174,24 @@
         <v>45078</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>12062320</v>
@@ -1172,38 +1200,38 @@
         <v>43636</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1">
         <v>45454</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>11569616</v>
@@ -1212,21 +1240,21 @@
         <v>43357</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>8775313</v>
@@ -1235,15 +1263,15 @@
         <v>41592</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>5830015</v>
@@ -1252,15 +1280,15 @@
         <v>38863</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>13529789</v>
@@ -1269,15 +1297,15 @@
         <v>44403</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>16447799</v>
@@ -1286,24 +1314,24 @@
         <v>45790</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>3629472</v>
@@ -1312,15 +1340,15 @@
         <v>36048</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>10844824</v>
@@ -1329,24 +1357,24 @@
         <v>42916</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>14211929</v>
@@ -1355,21 +1383,21 @@
         <v>44746</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>15677618</v>
@@ -1378,21 +1406,21 @@
         <v>45406</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>6851487</v>
@@ -1401,24 +1429,24 @@
         <v>39890</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>4443937</v>
@@ -1427,18 +1455,18 @@
         <v>37397</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>15042760</v>
@@ -1447,19 +1475,19 @@
         <v>45139</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
